--- a/Phòng kỹ thuật/Báo cáo/BÁO CÁO THÁNG 11/KPI/BÁO CÁO KPI/2. Xử lý các vấn đề Kỹ thuật/BẢNG KIỂM SOÁT CÁC BƯỚC TRONG QUY TRÌNH XỬ LÝ VẪN ĐỀ KỸ THUẬT.xlsx
+++ b/Phòng kỹ thuật/Báo cáo/BÁO CÁO THÁNG 11/KPI/BÁO CÁO KPI/2. Xử lý các vấn đề Kỹ thuật/BẢNG KIỂM SOÁT CÁC BƯỚC TRONG QUY TRÌNH XỬ LÝ VẪN ĐỀ KỸ THUẬT.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Phòng kỹ thuật\Báo cáo\BÁO CÁO THÁNG 11\KPI\BÁO CÁO KPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kimhuong\Phòng kỹ thuật\Báo cáo\BÁO CÁO THÁNG 11\KPI\BÁO CÁO KPI\2. Xử lý các vấn đề Kỹ thuật\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08233B2-E3D8-4DDD-9BFE-EBFF5D662779}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F380425-DA9D-462E-9171-2044FC7DA861}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470" xr2:uid="{38542B1F-5E3E-4DD3-8792-8C5C28561821}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Kiểm tra phiếu mua bán hóa chất độc hại</t>
   </si>
   <si>
-    <t>Hoàn thành</t>
-  </si>
-  <si>
     <t>Danh sách MRSL của Huge Bamboo.</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>Đọc và sửa lỗi chính tả cho bản cam kết tuân thủ MRSL cho chất hoạt động bề mặt của công ty Hùng Xương</t>
-  </si>
-  <si>
-    <t>TIẾN ĐỘ</t>
   </si>
   <si>
     <t>Viết danh sách các sản phẩm đã bán cho Huge Bamboo (tên sản phẩm, thành phần tên chất, nồng độ, số cas)</t>
@@ -241,6 +235,24 @@
     <t>1. Tìm các chất có trong SDS của sản phẩm.
 2. Xét xem các chất này có nằm trong danh mục các chất cấm hay chất hạn chế của BS không.
 3. Không có chất nào nằm trong hai danh mục trên, nên đủ tiêu chuẩn để làm chứng nhận.</t>
+  </si>
+  <si>
+    <t>Làm COA xuất xưởng của nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Ân</t>
+  </si>
+  <si>
+    <t>Kiểm tra nhận hàng máy đo nồng độ cồn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dịch và cung cấp các nội dung trong nhãn sản phẩm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thùy </t>
+  </si>
+  <si>
+    <t>Dịch SDS cho phòng thu mua (PTM)</t>
   </si>
 </sst>
 </file>
@@ -304,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -422,11 +434,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,71 +501,77 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE4F6AA-AAED-45E2-8DE4-E65EC53D7109}">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -872,1544 +899,1380 @@
     <col min="3" max="3" width="36.109375" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.77734375" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="38"/>
+      <c r="B8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="32"/>
       <c r="D8" s="4">
         <v>44867</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="99.75" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="99.75" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>2</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="4">
         <v>44868</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+        <v>24</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="36">
         <v>3</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
       <c r="B11" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6">
         <v>44866</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
       <c r="B12" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="6">
         <v>44868</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
       <c r="B13" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6">
         <v>44869</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
       <c r="B14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D14" s="6">
         <v>44872</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
       <c r="B15" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="6">
         <v>44873</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
       <c r="B16" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="10">
         <v>44875</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
       <c r="B17" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="10">
         <v>44879</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
       <c r="B18" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="10">
         <v>44880</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+        <v>25</v>
+      </c>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="39"/>
       <c r="B19" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
         <v>4</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="36"/>
+      <c r="B20" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="30"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="F20" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
       <c r="B21" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="6">
         <v>44867</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+        <v>23</v>
+      </c>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
       <c r="B22" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="9">
         <v>44870</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>5</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="26"/>
+      <c r="B23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="23"/>
       <c r="D23" s="4">
         <v>44870</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>6</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="26"/>
+      <c r="B24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="4">
         <v>44872</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31">
+        <v>25</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25">
         <v>7</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="21"/>
+      <c r="B25" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="35"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
+      <c r="F25" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
       <c r="B26" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" s="9">
         <v>44873</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="34"/>
-    </row>
-    <row r="27" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>8</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="27"/>
+      <c r="B27" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="24"/>
       <c r="D27" s="4">
         <v>44881</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>9</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>10</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="4">
+        <v>44881</v>
+      </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>11</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42">
+        <v>12</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="29"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="G20:G22"/>
+  <mergeCells count="24">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F10:F19"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="F20:F22"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B7:C7"/>
@@ -2417,10 +2280,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="G10:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
